--- a/InputData/fuels/GbPbT/GWP by Pollutant by Timeframe.xlsx
+++ b/InputData/fuels/GbPbT/GWP by Pollutant by Timeframe.xlsx
@@ -66,9 +66,6 @@
     <t>p. 731, Table 8.A, Row 2</t>
   </si>
   <si>
-    <t>See below for page, table, and row numbers.</t>
-  </si>
-  <si>
     <t>CO</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>GbPbT GWP by Pollutant by Timeframe</t>
+  </si>
+  <si>
+    <t>See "Data" tab for page, table, and row numbers.</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -560,32 +560,32 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -615,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -646,12 +646,12 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4">
         <v>5.6</v>
@@ -660,7 +660,7 @@
         <v>1.8</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -674,7 +674,7 @@
         <v>-8.1999999999999993</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -716,12 +716,12 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4">
         <v>1200</v>
@@ -730,12 +730,12 @@
         <v>345</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4">
         <v>-160</v>
@@ -744,7 +744,7 @@
         <v>-46</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -777,7 +777,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -786,17 +786,17 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -822,13 +822,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
